--- a/biology/Botanique/Hypoestes_aristata/Hypoestes_aristata.xlsx
+++ b/biology/Botanique/Hypoestes_aristata/Hypoestes_aristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoestes aristata (Vahl) Sol. ex Roem. &amp; Schult. est une espèce de plantes de la famille des Acanthaceae et du genre Hypoestes, présente en Afrique tropicale.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 janvier 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 janvier 2018) :
 variété Hypoestes aristata var. alba
 variété Hypoestes aristata var. thiniorum
-Selon Tropicos                                           (6 janvier 2018)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 janvier 2018) (Attention liste brute contenant possiblement des synonymes) :
 variété Hypoestes aristata var. alba K. Balkwill
 variété Hypoestes aristata var. aristata
 variété Hypoestes aristata var. barteri (T. Anderson) Benoist
@@ -553,9 +567,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce très répandue que l'on rencontre en Afrique tropicale depuis le Nigeria jusqu'en Éthiopie, également vers le sud, jusqu'en Afrique du Sud[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce très répandue que l'on rencontre en Afrique tropicale depuis le Nigeria jusqu'en Éthiopie, également vers le sud, jusqu'en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans plusieurs pays on lui attribue diverses propriétés médicinales[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans plusieurs pays on lui attribue diverses propriétés médicinales.
 </t>
         </is>
       </c>
